--- a/files/Chronic_Absenteeism_202308.xlsx
+++ b/files/Chronic_Absenteeism_202308.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tdee/Dropbox/Enigma/ChronicAbsenteeism/Brief/OSF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2595A9F1-F25F-3C47-9FDA-46846C07FCC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22EEE89-95B2-634F-84FC-482337B31BB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7880" yWindow="2120" windowWidth="29480" windowHeight="26340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6860" yWindow="500" windowWidth="29480" windowHeight="26340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -474,9 +474,6 @@
     <t>https://www.iaschoolperformance.gov/ECP/Home/Index</t>
   </si>
   <si>
-    <t>Online data cover 2020-21. The state provided a 21-22 file with ~30 rows but no variable labels; waiting clarification</t>
-  </si>
-  <si>
     <t>https://ksreportcard.ksde.org/chronic_absent.aspx?org_no=State&amp;rptType=3</t>
   </si>
   <si>
@@ -647,6 +644,9 @@
   <si>
     <t>Notes: (brown=no data expected; yellow=data may become available)</t>
   </si>
+  <si>
+    <t>Online data cover 2020-21. The state provided the 2021-22 number</t>
+  </si>
 </sst>
 </file>
 
@@ -674,16 +674,19 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Garamond"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Garamond"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Garamond"/>
+      <family val="1"/>
     </font>
     <font>
       <u/>
@@ -797,7 +800,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -868,6 +871,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1091,7 +1097,7 @@
   <dimension ref="A1:P1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1786,8 +1792,12 @@
       <c r="D17" s="6">
         <v>12.7</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="E17" s="7">
+        <v>25.6</v>
+      </c>
+      <c r="F17" s="7">
+        <v>12.9</v>
+      </c>
       <c r="G17" s="7" t="s">
         <v>48</v>
       </c>
@@ -20315,8 +20325,8 @@
   </sheetPr>
   <dimension ref="A1:C999"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="16"/>
@@ -20335,7 +20345,7 @@
         <v>123</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="51">
@@ -20483,15 +20493,15 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="34">
+    <row r="17" spans="1:3" ht="17">
       <c r="A17" s="21" t="s">
         <v>52</v>
       </c>
       <c r="B17" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="C17" s="27" t="s">
-        <v>145</v>
+      <c r="C17" s="34" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="51">
@@ -20499,10 +20509,10 @@
         <v>54</v>
       </c>
       <c r="B18" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" s="27" t="s">
         <v>146</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="34">
@@ -20510,7 +20520,7 @@
         <v>56</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C19" s="22"/>
     </row>
@@ -20519,10 +20529,10 @@
         <v>58</v>
       </c>
       <c r="B20" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" s="27" t="s">
         <v>149</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17">
@@ -20530,7 +20540,7 @@
         <v>60</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C21" s="22"/>
     </row>
@@ -20539,7 +20549,7 @@
         <v>62</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C22" s="22"/>
     </row>
@@ -20548,7 +20558,7 @@
         <v>64</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C23" s="22"/>
     </row>
@@ -20557,7 +20567,7 @@
         <v>66</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C24" s="22"/>
     </row>
@@ -20566,10 +20576,10 @@
         <v>68</v>
       </c>
       <c r="B25" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="C25" s="25" t="s">
         <v>155</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="34">
@@ -20577,7 +20587,7 @@
         <v>70</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C26" s="22"/>
     </row>
@@ -20586,10 +20596,10 @@
         <v>72</v>
       </c>
       <c r="B27" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="C27" s="22" t="s">
         <v>158</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="34">
@@ -20597,10 +20607,10 @@
         <v>74</v>
       </c>
       <c r="B28" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C28" s="25" t="s">
         <v>160</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="34">
@@ -20608,10 +20618,10 @@
         <v>76</v>
       </c>
       <c r="B29" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="C29" s="22" t="s">
         <v>162</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17">
@@ -20619,7 +20629,7 @@
         <v>78</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C30" s="22"/>
     </row>
@@ -20631,7 +20641,7 @@
         <v>137</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="51">
@@ -20639,7 +20649,7 @@
         <v>82</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C32" s="22"/>
     </row>
@@ -20648,10 +20658,10 @@
         <v>84</v>
       </c>
       <c r="B33" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="C33" s="22" t="s">
         <v>167</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="51">
@@ -20659,10 +20669,10 @@
         <v>86</v>
       </c>
       <c r="B34" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="C34" s="22" t="s">
         <v>169</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="17">
@@ -20670,7 +20680,7 @@
         <v>88</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C35" s="22"/>
     </row>
@@ -20679,7 +20689,7 @@
         <v>90</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C36" s="22"/>
     </row>
@@ -20688,7 +20698,7 @@
         <v>92</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C37" s="22"/>
     </row>
@@ -20697,10 +20707,10 @@
         <v>94</v>
       </c>
       <c r="B38" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="C38" s="22" t="s">
         <v>174</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="34">
@@ -20708,7 +20718,7 @@
         <v>96</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C39" s="22"/>
     </row>
@@ -20717,10 +20727,10 @@
         <v>98</v>
       </c>
       <c r="B40" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="C40" s="22" t="s">
         <v>177</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="34">
@@ -20728,7 +20738,7 @@
         <v>100</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C41" s="22"/>
     </row>
@@ -20737,10 +20747,10 @@
         <v>102</v>
       </c>
       <c r="B42" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="C42" s="25" t="s">
         <v>180</v>
-      </c>
-      <c r="C42" s="25" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="17">
@@ -20748,7 +20758,7 @@
         <v>104</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C43" s="22"/>
     </row>
@@ -20757,7 +20767,7 @@
         <v>106</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C44" s="22"/>
     </row>
@@ -20766,10 +20776,10 @@
         <v>108</v>
       </c>
       <c r="B45" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="C45" s="22" t="s">
         <v>184</v>
-      </c>
-      <c r="C45" s="22" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="17">
@@ -20777,7 +20787,7 @@
         <v>110</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C46" s="22"/>
     </row>
@@ -20786,10 +20796,10 @@
         <v>112</v>
       </c>
       <c r="B47" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="C47" s="30" t="s">
         <v>187</v>
-      </c>
-      <c r="C47" s="30" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="17">
@@ -20797,7 +20807,7 @@
         <v>114</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C48" s="22"/>
     </row>
@@ -20806,10 +20816,10 @@
         <v>116</v>
       </c>
       <c r="B49" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="C49" s="22" t="s">
         <v>190</v>
-      </c>
-      <c r="C49" s="22" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="119">
@@ -20817,10 +20827,10 @@
         <v>118</v>
       </c>
       <c r="B50" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="C50" s="22" t="s">
         <v>192</v>
-      </c>
-      <c r="C50" s="22" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17">
@@ -20828,7 +20838,7 @@
         <v>120</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C51" s="22"/>
     </row>
@@ -20837,10 +20847,10 @@
         <v>122</v>
       </c>
       <c r="B52" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="C52" s="25" t="s">
         <v>195</v>
-      </c>
-      <c r="C52" s="25" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="53" spans="1:3" s="21" customFormat="1">
@@ -20853,21 +20863,21 @@
     </row>
     <row r="55" spans="1:3" s="21" customFormat="1" ht="34">
       <c r="A55" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="B55" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="B55" s="32" t="s">
+      <c r="C55" s="31" t="s">
         <v>198</v>
-      </c>
-      <c r="C55" s="31" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="56" spans="1:3" s="21" customFormat="1" ht="34">
       <c r="A56" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="B56" s="32" t="s">
         <v>200</v>
-      </c>
-      <c r="B56" s="32" t="s">
-        <v>201</v>
       </c>
       <c r="C56" s="31"/>
     </row>
